--- a/datahub_maker/extra_data.xlsx
+++ b/datahub_maker/extra_data.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A0D2CB-4C63-4359-89D8-242F579125E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1103" yWindow="-98" windowWidth="27795" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="trash" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="260">
   <si>
     <t>type</t>
   </si>
@@ -767,12 +776,45 @@
   </si>
   <si>
     <t>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/combined_juiceboxes/Priya_HiC_remission_HIND.allValidPairs.hic</t>
+  </si>
+  <si>
+    <t>JIA_elena_credible_hg38</t>
+  </si>
+  <si>
+    <t>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/SNPs/JIA_credible_snps_hg38_elena_03022020.bed.gz</t>
+  </si>
+  <si>
+    <t>JIA_CHiC</t>
+  </si>
+  <si>
+    <t>JIA_pCHiC_BTH_269</t>
+  </si>
+  <si>
+    <t>JIA_pCHiC_BTH_316</t>
+  </si>
+  <si>
+    <t>JIA_pCHiC_BTH_351</t>
+  </si>
+  <si>
+    <t>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/JIA_CHiC/BTH_269_bin5k.bed.gz</t>
+  </si>
+  <si>
+    <t>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/JIA_CHiC/BTH_316_bin5k.bed.gz</t>
+  </si>
+  <si>
+    <t>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/JIA_CHiC/BTH_351_bin5k.bed.gz</t>
+  </si>
+  <si>
+    <t>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/SNPs/JIA_suggestive_snps_hg38_sorted.bed.gz</t>
+  </si>
+  <si>
+    <t>JIA_elena_suggestive_hg38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -1106,11 +1148,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1289,30 +1331,30 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>258</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
+        <v>249</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1320,10 +1362,10 @@
         <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
         <v>122</v>
@@ -1334,13 +1376,13 @@
         <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1348,13 +1390,13 @@
         <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1362,13 +1404,13 @@
         <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1376,13 +1418,13 @@
         <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1390,13 +1432,13 @@
         <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1404,13 +1446,13 @@
         <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1418,13 +1460,13 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1432,13 +1474,13 @@
         <v>120</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1446,13 +1488,13 @@
         <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1460,13 +1502,13 @@
         <v>120</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1474,13 +1516,13 @@
         <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1488,13 +1530,13 @@
         <v>120</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1502,13 +1544,13 @@
         <v>120</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1516,13 +1558,13 @@
         <v>120</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1530,13 +1572,13 @@
         <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1544,13 +1586,13 @@
         <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1558,13 +1600,13 @@
         <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1572,13 +1614,13 @@
         <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1586,13 +1628,13 @@
         <v>120</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1600,13 +1642,13 @@
         <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1614,13 +1656,13 @@
         <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1628,13 +1670,13 @@
         <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1642,13 +1684,13 @@
         <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1656,13 +1698,13 @@
         <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1670,13 +1712,13 @@
         <v>120</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1684,13 +1726,13 @@
         <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>209</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1698,13 +1740,13 @@
         <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1712,13 +1754,13 @@
         <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1726,13 +1768,13 @@
         <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1740,13 +1782,13 @@
         <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1754,10 +1796,10 @@
         <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
         <v>147</v>
@@ -1768,10 +1810,10 @@
         <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
         <v>147</v>
@@ -1782,13 +1824,13 @@
         <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1796,13 +1838,13 @@
         <v>120</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1810,13 +1852,13 @@
         <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1824,41 +1866,41 @@
         <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C52" t="s">
-        <v>159</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C53" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="D53" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1866,10 +1908,10 @@
         <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" t="s">
         <v>162</v>
@@ -1877,13 +1919,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D55" t="s">
         <v>162</v>
@@ -1891,13 +1933,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D56" t="s">
         <v>162</v>
@@ -1908,10 +1950,10 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D57" t="s">
         <v>162</v>
@@ -1922,13 +1964,13 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D58" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1936,13 +1978,13 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D59" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1950,10 +1992,10 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D60" t="s">
         <v>209</v>
@@ -1964,13 +2006,13 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1978,13 +2020,13 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1992,10 +2034,10 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" t="s">
         <v>210</v>
@@ -2006,13 +2048,13 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2020,13 +2062,13 @@
         <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2034,10 +2076,10 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D66" t="s">
         <v>211</v>
@@ -2047,29 +2089,28 @@
       <c r="A67" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>194</v>
+      <c r="B67" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" t="s">
+        <v>179</v>
       </c>
       <c r="D67" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C68" s="1" t="str">
-        <f>CONCATENATE("http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/", B68)</f>
-        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/atacseq_T1H.bed.gz</v>
+      <c r="B68" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" t="s">
+        <v>180</v>
       </c>
       <c r="D68" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2077,11 +2118,10 @@
         <v>3</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C69" s="1" t="str">
-        <f t="shared" ref="C69:C80" si="0">CONCATENATE("http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/", B69)</f>
-        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/atacseq_T20.bed.gz</v>
+        <v>193</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D69" t="s">
         <v>200</v>
@@ -2092,71 +2132,71 @@
         <v>3</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f>CONCATENATE("http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/", B70)</f>
+        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/atacseq_T1H.bed.gz</v>
+      </c>
+      <c r="D70" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f t="shared" ref="C71:C82" si="0">CONCATENATE("http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/", B71)</f>
+        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/atacseq_T20.bed.gz</v>
+      </c>
+      <c r="D71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C70" s="1" t="str">
+      <c r="C72" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/atacseq_T24H.bed.gz</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D72" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="2" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C71" s="1" t="str">
+      <c r="C73" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/atacseq_T4H.bed.gz</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D73" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="2" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C72" s="1" t="str">
+      <c r="C74" s="1" t="str">
         <f t="shared" si="0"/>
         <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/atacseq_T2H.bed.gz</v>
-      </c>
-      <c r="D72" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B73" t="s">
-        <v>201</v>
-      </c>
-      <c r="C73" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/T0_new_washU_track.bed.gz</v>
-      </c>
-      <c r="D73" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B74" t="s">
-        <v>202</v>
-      </c>
-      <c r="C74" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/T0_old_washU_track.bed.gz</v>
       </c>
       <c r="D74" t="s">
         <v>200</v>
@@ -2167,11 +2207,11 @@
         <v>155</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C75" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/T1H_new_washU_track.bed.gz</v>
+        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/T0_new_washU_track.bed.gz</v>
       </c>
       <c r="D75" t="s">
         <v>200</v>
@@ -2182,11 +2222,11 @@
         <v>155</v>
       </c>
       <c r="B76" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C76" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/T1H_old_washU_track.bed.gz</v>
+        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/T0_old_washU_track.bed.gz</v>
       </c>
       <c r="D76" t="s">
         <v>200</v>
@@ -2197,11 +2237,11 @@
         <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C77" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/T4H_new_washU_track.bed.gz</v>
+        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/T1H_new_washU_track.bed.gz</v>
       </c>
       <c r="D77" t="s">
         <v>200</v>
@@ -2212,11 +2252,11 @@
         <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C78" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/T4H_old_washU_track.bed.gz</v>
+        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/T1H_old_washU_track.bed.gz</v>
       </c>
       <c r="D78" t="s">
         <v>200</v>
@@ -2227,11 +2267,11 @@
         <v>155</v>
       </c>
       <c r="B79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C79" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/T20_new_washU_track.bed.gz</v>
+        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/T4H_new_washU_track.bed.gz</v>
       </c>
       <c r="D79" t="s">
         <v>200</v>
@@ -2242,11 +2282,11 @@
         <v>155</v>
       </c>
       <c r="B80" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C80" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/T20_old_washU_track.bed.gz</v>
+        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/T4H_old_washU_track.bed.gz</v>
       </c>
       <c r="D80" t="s">
         <v>200</v>
@@ -2257,13 +2297,14 @@
         <v>155</v>
       </c>
       <c r="B81" t="s">
-        <v>216</v>
-      </c>
-      <c r="C81" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="C81" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/T20_new_washU_track.bed.gz</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2271,13 +2312,14 @@
         <v>155</v>
       </c>
       <c r="B82" t="s">
-        <v>219</v>
-      </c>
-      <c r="C82" t="s">
-        <v>213</v>
+        <v>208</v>
+      </c>
+      <c r="C82" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/T20_old_washU_track.bed.gz</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2285,13 +2327,13 @@
         <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C83" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D83" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2299,41 +2341,41 @@
         <v>155</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C84" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D84" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C85" t="s">
-        <v>227</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
+      </c>
+      <c r="D85" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C86" t="s">
-        <v>228</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
+      </c>
+      <c r="D86" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2341,10 +2383,10 @@
         <v>120</v>
       </c>
       <c r="B87" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C87" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>223</v>
@@ -2355,10 +2397,10 @@
         <v>120</v>
       </c>
       <c r="B88" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C88" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>223</v>
@@ -2369,13 +2411,13 @@
         <v>120</v>
       </c>
       <c r="B89" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C89" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2383,13 +2425,13 @@
         <v>120</v>
       </c>
       <c r="B90" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C90" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2397,10 +2439,10 @@
         <v>120</v>
       </c>
       <c r="B91" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C91" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>232</v>
@@ -2411,10 +2453,10 @@
         <v>120</v>
       </c>
       <c r="B92" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C92" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>232</v>
@@ -2425,10 +2467,10 @@
         <v>120</v>
       </c>
       <c r="B93" t="s">
-        <v>237</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
+      </c>
+      <c r="C93" t="s">
+        <v>243</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>232</v>
@@ -2439,10 +2481,10 @@
         <v>120</v>
       </c>
       <c r="B94" t="s">
-        <v>238</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
+      </c>
+      <c r="C94" t="s">
+        <v>244</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>232</v>
@@ -2453,10 +2495,10 @@
         <v>120</v>
       </c>
       <c r="B95" t="s">
-        <v>239</v>
-      </c>
-      <c r="C95" t="s">
-        <v>248</v>
+        <v>237</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>232</v>
@@ -2467,31 +2509,102 @@
         <v>120</v>
       </c>
       <c r="B96" t="s">
-        <v>240</v>
-      </c>
-      <c r="C96" t="s">
-        <v>247</v>
+        <v>238</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>232</v>
       </c>
     </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" t="s">
+        <v>248</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98" t="s">
+        <v>240</v>
+      </c>
+      <c r="C98" t="s">
+        <v>247</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B99" t="s">
+        <v>252</v>
+      </c>
+      <c r="C99" t="s">
+        <v>255</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100" t="s">
+        <v>253</v>
+      </c>
+      <c r="C100" t="s">
+        <v>256</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" t="s">
+        <v>257</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C67" r:id="rId1"/>
-    <hyperlink ref="C68" r:id="rId2" display="http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/atacseq_T0.bed.gz"/>
-    <hyperlink ref="C69:C72" r:id="rId3" display="http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/atacseq_T0.bed.gz"/>
-    <hyperlink ref="C73:C80" r:id="rId4" display="http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/atacseq_T0.bed.gz"/>
-    <hyperlink ref="C93" r:id="rId5"/>
-    <hyperlink ref="C94" r:id="rId6"/>
+    <hyperlink ref="C69" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C70" r:id="rId2" display="http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/atacseq_T0.bed.gz" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C71:C74" r:id="rId3" display="http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/atacseq_T0.bed.gz" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C75:C82" r:id="rId4" display="http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/jing_data/atacseq_T0.bed.gz" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C95" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C96" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C14" r:id="rId7" xr:uid="{1F24E904-DE4D-4BC4-A283-284B88988D75}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/datahub_maker/extra_data.xlsx
+++ b/datahub_maker/extra_data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A0D2CB-4C63-4359-89D8-242F579125E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE1A742-3879-456B-8B49-A8634A96C751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="-98" windowWidth="27795" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1087" yWindow="-98" windowWidth="27811" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="264">
   <si>
     <t>type</t>
   </si>
@@ -809,6 +809,18 @@
   </si>
   <si>
     <t>JIA_elena_suggestive_hg38</t>
+  </si>
+  <si>
+    <t>JIA_merged_HiC</t>
+  </si>
+  <si>
+    <t>JIA_merged_pCHiC</t>
+  </si>
+  <si>
+    <t>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/JIA_CHiC/jia_hic_merged_MBOI.allValidPairs.hic</t>
+  </si>
+  <si>
+    <t>http://bartzabel.ls.manchester.ac.uk/worthingtonlab/psa_functional_genomics/JIA_CHiC/jia_merged_washU_text.txt.new_washu.bed.gz</t>
   </si>
 </sst>
 </file>
@@ -1149,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2585,6 +2597,34 @@
         <v>257</v>
       </c>
       <c r="D101" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" t="s">
+        <v>260</v>
+      </c>
+      <c r="C102" t="s">
+        <v>262</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B103" t="s">
+        <v>261</v>
+      </c>
+      <c r="C103" t="s">
+        <v>263</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>251</v>
       </c>
     </row>
